--- a/config/Datas/__tables__.xlsx
+++ b/config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Documents\GitHub\erza\config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GoHo\Downloads\XXXX\luban_examples-main\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA9E12-6D15-4009-9957-C999B90329A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8E8FC9-7018-45CB-991B-12033D650D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +31,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
+    <t>read_schema_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -49,18 +49,12 @@
     <t>comment</t>
   </si>
   <si>
-    <t>patch_input</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
     <t>output</t>
   </si>
   <si>
-    <t>options</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
     <t>输出文件名</t>
   </si>
   <si>
@@ -109,29 +100,30 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
     <t>Conf.ItemInfos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ItemInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ItemInfo@ItemData.xlsx</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Conf.ItemInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,9 +133,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,12 +150,21 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -188,28 +196,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,27 +496,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="57.125" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="32.125" customWidth="1"/>
-    <col min="8" max="8" width="42.875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,95 +546,83 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{399AFF6C-39F7-4AAC-BCE0-DE34CE73EF60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
